--- a/Bin/tools/Excel2Lua/sheet_imguied/language.xlsx
+++ b/Bin/tools/Excel2Lua/sheet_imguied/language.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\editor_img\bin\tools\Excel2Lua\sheet_imguied\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fff\test\ed_imgui\Bin\tools\Excel2Lua\sheet_imguied\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3A991-A669-4101-B416-40CC939DBEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Lang" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="546">
   <si>
     <t>配置规则</t>
   </si>
@@ -1692,13 +1691,21 @@
   </si>
   <si>
     <t>不能在'layer'中改变元素父节点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disassembly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解子图</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1974,7 +1981,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2276,11 +2283,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4651,6 +4658,17 @@
         <v>540</v>
       </c>
     </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C219" t="s">
+        <v>545</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
